--- a/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/спрос_21-3-2025 таня месяц с 21-2-2025 по 21-3-2025_sorted.xlsx
+++ b/MainTop/21.03.2025/таня месяц с 21.02.2025 по 21.03.2025/спрос_21-3-2025 таня месяц с 21-2-2025 по 21-3-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\21.03.2025\таня месяц с 21.02.2025 по 21.03.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5483CD-3106-4A21-836A-7FB0F8F2D12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FBC09D-6A51-437D-92A6-4073E42979EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Артикул</t>
   </si>
@@ -43,15 +43,9 @@
     <t>сумма</t>
   </si>
   <si>
-    <t>Тип упорядочить</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
-    <t>1_а4</t>
-  </si>
-  <si>
     <t>Термонаклейка Аист оранжевый круг</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>Термонаклейка Зайчик ромашка в руках</t>
   </si>
   <si>
-    <t>2_а5</t>
-  </si>
-  <si>
     <t>Термонаклейка Единорог с ромашкой сердечки</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
   </si>
   <si>
     <t>Термонаклейка Губы Язык Краски Дизайн</t>
-  </si>
-  <si>
-    <t>6_а4_настройки_60</t>
   </si>
   <si>
     <t>Термонаклейка Девушка Аниме Япония Красное Солнце</t>
@@ -637,15 +625,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,13 +655,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>5.8</v>
@@ -693,13 +678,10 @@
       <c r="G2" s="2">
         <v>778</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>2.7</v>
@@ -719,13 +701,10 @@
       <c r="G3" s="2">
         <v>778</v>
       </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>6.7</v>
@@ -745,13 +724,10 @@
       <c r="G4" s="2">
         <v>778</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>2.2999999999999998</v>
@@ -771,13 +747,10 @@
       <c r="G5" s="2">
         <v>778</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -797,13 +770,10 @@
       <c r="G6" s="2">
         <v>778</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>2.1</v>
@@ -823,13 +793,10 @@
       <c r="G7" s="2">
         <v>778</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>2.4</v>
@@ -849,13 +816,10 @@
       <c r="G8" s="2">
         <v>778</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>1.9</v>
@@ -875,13 +839,10 @@
       <c r="G9" s="2">
         <v>778</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>2.2000000000000002</v>
@@ -901,13 +862,10 @@
       <c r="G10" s="2">
         <v>778</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>1.1000000000000001</v>
@@ -927,13 +885,10 @@
       <c r="G11" s="2">
         <v>778</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>1.3</v>
@@ -953,13 +908,10 @@
       <c r="G12" s="3">
         <v>778</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -979,13 +931,10 @@
       <c r="G13" s="3">
         <v>778</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>1.3</v>
@@ -1005,13 +954,10 @@
       <c r="G14" s="3">
         <v>778</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -1031,13 +977,10 @@
       <c r="G15" s="3">
         <v>778</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>1.3</v>
@@ -1057,13 +1000,10 @@
       <c r="G16" s="3">
         <v>778</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1083,13 +1023,10 @@
       <c r="G17" s="3">
         <v>778</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -1109,13 +1046,10 @@
       <c r="G18" s="3">
         <v>778</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>1.5</v>
@@ -1135,13 +1069,10 @@
       <c r="G19" s="3">
         <v>778</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>0.7</v>
@@ -1161,13 +1092,10 @@
       <c r="G20" s="3">
         <v>778</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -1187,13 +1115,10 @@
       <c r="G21" s="3">
         <v>778</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>0.8</v>
@@ -1213,13 +1138,10 @@
       <c r="G22" s="3">
         <v>778</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
         <v>0.7</v>
@@ -1239,13 +1161,10 @@
       <c r="G23" s="3">
         <v>778</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>0.7</v>
@@ -1265,13 +1184,10 @@
       <c r="G24" s="3">
         <v>778</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>0.6</v>
@@ -1291,13 +1207,10 @@
       <c r="G25" s="3">
         <v>778</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>1.2</v>
@@ -1317,13 +1230,10 @@
       <c r="G26" s="3">
         <v>778</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>0.8</v>
@@ -1343,13 +1253,10 @@
       <c r="G27" s="3">
         <v>778</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>0.6</v>
@@ -1369,13 +1276,10 @@
       <c r="G28" s="3">
         <v>778</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>0.4</v>
@@ -1395,13 +1299,10 @@
       <c r="G29" s="3">
         <v>778</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3">
         <v>0.8</v>
@@ -1421,13 +1322,10 @@
       <c r="G30" s="3">
         <v>778</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
         <v>0.7</v>
@@ -1447,13 +1345,10 @@
       <c r="G31" s="3">
         <v>778</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
         <v>0.5</v>
@@ -1473,13 +1368,10 @@
       <c r="G32" s="3">
         <v>778</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
         <v>0.4</v>
@@ -1499,13 +1391,10 @@
       <c r="G33" s="3">
         <v>778</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3">
         <v>0.6</v>
@@ -1525,13 +1414,10 @@
       <c r="G34" s="3">
         <v>778</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
         <v>0.6</v>
@@ -1551,13 +1437,10 @@
       <c r="G35" s="3">
         <v>778</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
         <v>0.4</v>
@@ -1577,13 +1460,10 @@
       <c r="G36" s="3">
         <v>778</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3">
         <v>0.4</v>
@@ -1603,13 +1483,10 @@
       <c r="G37" s="3">
         <v>778</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
         <v>2.2999999999999998</v>
@@ -1629,13 +1506,10 @@
       <c r="G38" s="3">
         <v>778</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3">
         <v>0.8</v>
@@ -1655,13 +1529,10 @@
       <c r="G39" s="3">
         <v>778</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3">
         <v>0.7</v>
@@ -1681,13 +1552,10 @@
       <c r="G40" s="3">
         <v>778</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3">
         <v>0.4</v>
@@ -1707,13 +1575,10 @@
       <c r="G41" s="3">
         <v>778</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0.3</v>
@@ -1733,13 +1598,10 @@
       <c r="G42" s="3">
         <v>778</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0.2</v>
@@ -1759,13 +1621,10 @@
       <c r="G43" s="3">
         <v>778</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0.7</v>
@@ -1785,13 +1644,10 @@
       <c r="G44" s="3">
         <v>778</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3">
         <v>0.7</v>
@@ -1811,13 +1667,10 @@
       <c r="G45" s="3">
         <v>778</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3">
         <v>0.5</v>
@@ -1837,13 +1690,10 @@
       <c r="G46" s="3">
         <v>778</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3">
         <v>0.4</v>
@@ -1863,13 +1713,10 @@
       <c r="G47" s="3">
         <v>778</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3">
         <v>0.2</v>
@@ -1889,13 +1736,10 @@
       <c r="G48" s="3">
         <v>778</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3">
         <v>0.2</v>
@@ -1915,13 +1759,10 @@
       <c r="G49" s="3">
         <v>778</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3">
         <v>0.6</v>
@@ -1941,13 +1782,10 @@
       <c r="G50" s="3">
         <v>778</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3">
         <v>0.5</v>
@@ -1967,13 +1805,10 @@
       <c r="G51" s="3">
         <v>778</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3">
         <v>0.4</v>
@@ -1993,13 +1828,10 @@
       <c r="G52" s="3">
         <v>778</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
         <v>0.4</v>
@@ -2019,13 +1851,10 @@
       <c r="G53" s="3">
         <v>778</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3">
         <v>0.2</v>
@@ -2045,13 +1874,10 @@
       <c r="G54" s="3">
         <v>778</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -2071,13 +1897,10 @@
       <c r="G55" s="3">
         <v>778</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3">
         <v>1.9</v>
@@ -2097,13 +1920,10 @@
       <c r="G56" s="3">
         <v>778</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2123,13 +1943,10 @@
       <c r="G57">
         <v>778</v>
       </c>
-      <c r="H57" t="s">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>66</v>
       </c>
       <c r="B58">
         <v>0.6</v>
@@ -2149,13 +1966,10 @@
       <c r="G58">
         <v>778</v>
       </c>
-      <c r="H58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>0.5</v>
@@ -2175,13 +1989,10 @@
       <c r="G59">
         <v>778</v>
       </c>
-      <c r="H59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>0.4</v>
@@ -2201,13 +2012,10 @@
       <c r="G60">
         <v>778</v>
       </c>
-      <c r="H60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0.5</v>
@@ -2227,13 +2035,10 @@
       <c r="G61">
         <v>778</v>
       </c>
-      <c r="H61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0.2</v>
@@ -2253,13 +2058,10 @@
       <c r="G62">
         <v>778</v>
       </c>
-      <c r="H62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>0.1</v>
@@ -2279,13 +2081,10 @@
       <c r="G63">
         <v>778</v>
       </c>
-      <c r="H63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>0.6</v>
@@ -2305,13 +2104,10 @@
       <c r="G64">
         <v>778</v>
       </c>
-      <c r="H64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -2331,13 +2127,10 @@
       <c r="G65">
         <v>778</v>
       </c>
-      <c r="H65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4">
         <v>0.4</v>
@@ -2357,13 +2150,10 @@
       <c r="G66" s="4">
         <v>778</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4">
         <v>0.1</v>
@@ -2383,13 +2173,10 @@
       <c r="G67" s="4">
         <v>778</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4">
         <v>0.3</v>
@@ -2408,9 +2195,6 @@
       </c>
       <c r="G68" s="4">
         <v>778</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
